--- a/data/trans_camb/CoTrAQ_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R-Dificultad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-26.59480470669153</v>
+        <v>-25.60970352858575</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-25.12363658498403</v>
+        <v>-25.65320014004677</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-23.42724531693457</v>
+        <v>-23.35329739449573</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-8.881218834433206</v>
+        <v>-9.13606201753608</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.05908009123028</v>
+        <v>-6.635496533277796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-10.5750042315941</v>
+        <v>-10.81580608543531</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4058788001651947</v>
+        <v>-0.3981010246637959</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4078489464425142</v>
+        <v>-0.4172719412871053</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.378592381402687</v>
+        <v>-0.3720362583854802</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1556923970222845</v>
+        <v>-0.1590983598174402</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.138214311742583</v>
+        <v>-0.1280242753390371</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1920634473198017</v>
+        <v>-0.1930189231464458</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-27.26220338264382</v>
+        <v>-27.84188946331871</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-19.18638272684055</v>
+        <v>-18.21118624048644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-22.25663770191225</v>
+        <v>-22.13994173398112</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-13.75047752355194</v>
+        <v>-13.75359343317761</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.9616844399698484</v>
+        <v>-0.9159702347010831</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-11.01607797170448</v>
+        <v>-11.39339784148826</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3827237033988765</v>
+        <v>-0.3847668459963175</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3033729941984009</v>
+        <v>-0.2926099976633246</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3285897404957818</v>
+        <v>-0.3285630286485414</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.212974372009598</v>
+        <v>-0.2068354811264848</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.01166486630112824</v>
+        <v>-0.01649279087555339</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1767050385036313</v>
+        <v>-0.1815161687926166</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-19.48544488095984</v>
+        <v>-19.63734366685914</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-27.02530683754863</v>
+        <v>-27.08855649852331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.40372734664255</v>
+        <v>-20.54418287756765</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-6.428878585581269</v>
+        <v>-7.006991736871392</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-11.61585299372111</v>
+        <v>-11.32865180255743</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-10.14614229217042</v>
+        <v>-10.59505070461262</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2546411222607295</v>
+        <v>-0.2553180783234006</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3626123742126417</v>
+        <v>-0.3562157348602095</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2699137504137102</v>
+        <v>-0.2732410054711065</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.0914534762565966</v>
+        <v>-0.100543031539756</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1666759262904469</v>
+        <v>-0.1646280884432457</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1432133628777037</v>
+        <v>-0.1501325056428578</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-21.74986316538247</v>
+        <v>-22.02894648597044</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-23.896697842181</v>
+        <v>-24.29365937090217</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-21.1075970112084</v>
+        <v>-20.10575048268789</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-5.913957231715066</v>
+        <v>-5.688892992282342</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.733310752481171</v>
+        <v>-4.454453288452469</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-8.379056125536929</v>
+        <v>-7.885356960156767</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2670357099682981</v>
+        <v>-0.2687572483732591</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3076016712008638</v>
+        <v>-0.3268569432830241</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2660482993548841</v>
+        <v>-0.2563775096378575</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.07946631994962322</v>
+        <v>-0.07777071785045148</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.04064151559600494</v>
+        <v>-0.06743494467673586</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1137271636719892</v>
+        <v>-0.1087861648417353</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-20.19316234348788</v>
+        <v>-20.8594919904581</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-20.23200852469746</v>
+        <v>-19.99030795563932</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.24600061001484</v>
+        <v>-18.95609412922019</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-12.8147810300581</v>
+        <v>-13.18913419645724</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-11.65831876513007</v>
+        <v>-10.89507984774812</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-13.53705356902231</v>
+        <v>-13.39220122953552</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2778295985985851</v>
+        <v>-0.2886056934208364</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.297754060808845</v>
+        <v>-0.2955082635585572</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2754168628894603</v>
+        <v>-0.2706974099490679</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1855098560418641</v>
+        <v>-0.1882502527547844</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1800690636950558</v>
+        <v>-0.1719754148327704</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2011968966521464</v>
+        <v>-0.1997950978028723</v>
       </c>
     </row>
     <row r="34">
